--- a/Algorithms_solved.xlsx
+++ b/Algorithms_solved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shehryarbajwa/algorithms-challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E08D93-E00C-D64C-923A-9208CF569605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C94B98-1EF9-994C-A689-60966A204852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="5540" windowWidth="28040" windowHeight="15900" xr2:uid="{5B13E3C5-C034-6249-A945-F210C27A470A}"/>
+    <workbookView xWindow="760" yWindow="60" windowWidth="28040" windowHeight="15900" xr2:uid="{5B13E3C5-C034-6249-A945-F210C27A470A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Problem</t>
   </si>
@@ -70,6 +70,57 @@
   </si>
   <si>
     <t>Date Attempted First</t>
+  </si>
+  <si>
+    <t>Branch Sum</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>Binary tree leaf nodes are roughly half the size of the input. O(n/2) so around O(n)</t>
+  </si>
+  <si>
+    <t>While loop to iterate through binary tree BFS</t>
+  </si>
+  <si>
+    <t>Hash table to store keys and search in constant time</t>
+  </si>
+  <si>
+    <t>Depth First Search</t>
+  </si>
+  <si>
+    <t>Graph Implementation</t>
+  </si>
+  <si>
+    <t>Use a graph, Time and Space</t>
+  </si>
+  <si>
+    <t>Questions to ask</t>
+  </si>
+  <si>
+    <t>Is the tree balanced?</t>
+  </si>
+  <si>
+    <t>Is the tree a binary tree?</t>
+  </si>
+  <si>
+    <t>LinkedList Construction</t>
+  </si>
+  <si>
+    <t>The key is to change pointers accordingly, Use reusable methods, Update remove pointers in the correctOrder</t>
+  </si>
+  <si>
+    <t>Nth Fibonacci</t>
+  </si>
+  <si>
+    <t>Recursion, Iteration, Time Complexity</t>
+  </si>
+  <si>
+    <t>Learn to understand time complexity of N Fibonacci</t>
+  </si>
+  <si>
+    <t>Recursively, Memoization, Iteratively</t>
   </si>
 </sst>
 </file>
@@ -94,7 +145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,25 +486,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692D23BF-E5BD-4744-931C-2F3DDC23964E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="70.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +531,14 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -500,8 +559,12 @@
       <c r="H2" s="3">
         <v>43862</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -521,7 +584,129 @@
         <v>12</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3">
+        <v>43862</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
+        <v>43922</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
+        <v>43922</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3">
+        <v>43952</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3">
+        <v>43952</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms_solved.xlsx
+++ b/Algorithms_solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shehryarbajwa/algorithms-challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C94B98-1EF9-994C-A689-60966A204852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630DBE24-85E7-EA43-807A-760ADA715C2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="60" windowWidth="28040" windowHeight="15900" xr2:uid="{5B13E3C5-C034-6249-A945-F210C27A470A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Problem</t>
   </si>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>Recursively, Memoization, Iteratively</t>
+  </si>
+  <si>
+    <t>Product Sum</t>
+  </si>
+  <si>
+    <t>Recursion, Multiplier</t>
+  </si>
+  <si>
+    <t>If a Special Array contains other special arrays, it can be solved recursively</t>
+  </si>
+  <si>
+    <t>How is the multiplier calculated?</t>
+  </si>
+  <si>
+    <t>Setting pointers</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Binary search is sorted</t>
+  </si>
+  <si>
+    <t>Is the list sorted?</t>
   </si>
 </sst>
 </file>
@@ -486,23 +513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692D23BF-E5BD-4744-931C-2F3DDC23964E}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="71.6640625" customWidth="1"/>
     <col min="10" max="10" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -668,7 +695,9 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3">
         <v>43952</v>
@@ -708,6 +737,66 @@
         <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3">
+        <v>43983</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3">
+        <v>43983</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algorithms_solved.xlsx
+++ b/Algorithms_solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shehryarbajwa/algorithms-challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630DBE24-85E7-EA43-807A-760ADA715C2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3449EC-DC3F-7143-81C4-D54E0507FAA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="60" windowWidth="28040" windowHeight="15900" xr2:uid="{5B13E3C5-C034-6249-A945-F210C27A470A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Problem</t>
   </si>
@@ -148,6 +148,36 @@
   </si>
   <si>
     <t>Is the list sorted?</t>
+  </si>
+  <si>
+    <t>Three Largest Numbers</t>
+  </si>
+  <si>
+    <t>Is the array sorted? In case of a list always ask if the array is sorted? Storing numbers in an array is done in consant space. This doesn’t include append or pop functions</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Since bubble sort works in place, we don’t need additional DS to do the swap thus O(1) is space. Time Complexity is BestO(N) when array is sorted, O(n^2) when we run 10 for loops or O(n^2) when we run 100 for loops</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Iterate after 1st element, while loop</t>
+  </si>
+  <si>
+    <t>Make two sub-arrays. One sorted, one unsorted. Iterate after the first index element</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Two for loops, two subarrays</t>
+  </si>
+  <si>
+    <t>Make two sub-arrays. Compare the minimum element with all other elements. Do this for each index in the array. Set to minimum and iterate each step until all elements are sorted</t>
   </si>
 </sst>
 </file>
@@ -513,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692D23BF-E5BD-4744-931C-2F3DDC23964E}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,8 +559,8 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="71.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" customWidth="1"/>
+    <col min="9" max="9" width="179.6640625" customWidth="1"/>
+    <col min="10" max="10" width="138.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -797,6 +827,111 @@
         <v>40</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3">
+        <v>44013</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3">
+        <v>44013</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3">
+        <v>44075</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3">
+        <v>44075</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
